--- a/xls/weekly_ary_excel_0530_0602.xlsx
+++ b/xls/weekly_ary_excel_0530_0602.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Data\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Data\Data_Processing\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,238 +36,239 @@
     <t>project_non_project_ratio</t>
   </si>
   <si>
-    <t>Abbie Yang</t>
-  </si>
-  <si>
-    <t>Abby Chang</t>
-  </si>
-  <si>
-    <t>Alan Hsu</t>
-  </si>
-  <si>
-    <t>Allen Lee</t>
-  </si>
-  <si>
-    <t>Andrey Wang</t>
-  </si>
-  <si>
-    <t>Andy Lee</t>
-  </si>
-  <si>
-    <t>Avery Huang</t>
-  </si>
-  <si>
-    <t>Betty Chen</t>
-  </si>
-  <si>
-    <t>Bill Chen</t>
-  </si>
-  <si>
-    <t>Charlie Lin</t>
-  </si>
-  <si>
-    <t>Chloe Tsai</t>
-  </si>
-  <si>
-    <t>Cloud Sung</t>
-  </si>
-  <si>
-    <t>Colin Jheng</t>
-  </si>
-  <si>
-    <t>Danny Zhong</t>
-  </si>
-  <si>
-    <t>David Wang</t>
-  </si>
-  <si>
-    <t>Derek Chen</t>
-  </si>
-  <si>
-    <t>Donna Chang</t>
-  </si>
-  <si>
-    <t>Dora Chang</t>
-  </si>
-  <si>
-    <t>Duke Chen</t>
-  </si>
-  <si>
-    <t>Grace Chiu</t>
-  </si>
-  <si>
-    <t>Han Chen</t>
-  </si>
-  <si>
-    <t>Hank Lin</t>
-  </si>
-  <si>
-    <t>Jasper Chang</t>
-  </si>
-  <si>
-    <t>Jimmy Chiang</t>
-  </si>
-  <si>
-    <t>Jocelyn Yu</t>
-  </si>
-  <si>
-    <t>Jojo Wu</t>
-  </si>
-  <si>
-    <t>Judy Kuo</t>
-  </si>
-  <si>
-    <t>Kiki Ciou</t>
-  </si>
-  <si>
-    <t>Kira Liao</t>
-  </si>
-  <si>
-    <t>Lynn Chen</t>
-  </si>
-  <si>
-    <t>Mars Chien</t>
-  </si>
-  <si>
-    <t>Michael Cheng</t>
-  </si>
-  <si>
-    <t>Minghsuan Wu</t>
-  </si>
-  <si>
-    <t>Moti Wu</t>
-  </si>
-  <si>
-    <t>News Hsu</t>
-  </si>
-  <si>
-    <t>Nick Hsu</t>
-  </si>
-  <si>
-    <t>Owen Chang</t>
-  </si>
-  <si>
-    <t>Owen Lin</t>
-  </si>
-  <si>
-    <t>Rachel Hsu</t>
-  </si>
-  <si>
-    <t>Rex Liu</t>
-  </si>
-  <si>
-    <t>Roy Hsiao</t>
-  </si>
-  <si>
-    <t>Sam Chang</t>
-  </si>
-  <si>
-    <t>Sam Yang</t>
-  </si>
-  <si>
-    <t>Samuel Zhuang</t>
-  </si>
-  <si>
-    <t>Sean Wang</t>
-  </si>
-  <si>
-    <t>Simon Liu</t>
-  </si>
-  <si>
-    <t>Sky Hsu</t>
-  </si>
-  <si>
-    <t>Sophia He</t>
-  </si>
-  <si>
-    <t>Sunny Hu</t>
-  </si>
-  <si>
-    <t>Troy Yan</t>
-  </si>
-  <si>
-    <t>Vince Lin</t>
-  </si>
-  <si>
-    <t>Willis Shao</t>
-  </si>
-  <si>
-    <t>Witter Kuo</t>
-  </si>
-  <si>
-    <t>Yuni Chou</t>
-  </si>
-  <si>
-    <t>Yvonne Huang</t>
-  </si>
-  <si>
-    <t>Zach Huang</t>
-  </si>
-  <si>
-    <t>Zedd Zhong</t>
-  </si>
-  <si>
-    <t>Zoey Shen</t>
-  </si>
-  <si>
-    <t>Charles Shih</t>
-  </si>
-  <si>
-    <t>elisa.chao</t>
-  </si>
-  <si>
-    <t>kranti.nebhwani</t>
-  </si>
-  <si>
-    <t>Peter Tsai</t>
-  </si>
-  <si>
-    <t>Ann Teng</t>
-  </si>
-  <si>
-    <t>Bill Wu</t>
-  </si>
-  <si>
-    <t>Becky Chen</t>
-  </si>
-  <si>
-    <t>Cheng Cheng</t>
-  </si>
-  <si>
-    <t>Hyde Pan</t>
-  </si>
-  <si>
-    <t>Mark Huang</t>
-  </si>
-  <si>
-    <t>Jason Peng</t>
-  </si>
-  <si>
-    <t>Leo Chang</t>
-  </si>
-  <si>
-    <t>Knock Yang</t>
-  </si>
-  <si>
-    <t>Yvonne Chang</t>
-  </si>
-  <si>
-    <t>Ann Wang</t>
-  </si>
-  <si>
-    <t>Noelle Liu</t>
-  </si>
-  <si>
-    <t>Jonathan Yu</t>
-  </si>
-  <si>
-    <t>Liam Chin</t>
-  </si>
-  <si>
-    <t>Ethan Li</t>
-  </si>
-  <si>
-    <t>Otis Lin</t>
+    <t>A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>A65</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A67</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>A69</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A76</t>
+  </si>
+  <si>
+    <t>A77</t>
+  </si>
+  <si>
+    <t>A78</t>
   </si>
 </sst>
 </file>
@@ -642,8 +643,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -677,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -694,7 +695,7 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -711,7 +712,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -728,7 +729,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -745,7 +746,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>13.83</v>
@@ -762,7 +763,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -779,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -796,7 +797,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>27.18</v>
@@ -813,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>24.5</v>
@@ -830,7 +831,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>30.67</v>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>32.5</v>
@@ -864,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -881,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>33</v>
@@ -898,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -915,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>33.799999999999997</v>
@@ -932,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>32</v>
@@ -949,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>33.24</v>
@@ -966,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -983,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -1000,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -1017,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -1034,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -1051,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>33.32</v>
@@ -1068,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -1085,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>32</v>
@@ -1102,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>35.79</v>
@@ -1119,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>32.75</v>
@@ -1136,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>33.5</v>
@@ -1153,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>32</v>
@@ -1170,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>36</v>
@@ -1187,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -1204,7 +1205,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>34</v>
@@ -1221,7 +1222,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -1238,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -1255,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>33.5</v>
@@ -1272,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>40</v>
@@ -1289,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>32</v>
@@ -1306,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -1323,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>32</v>
@@ -1340,7 +1341,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>32</v>
@@ -1357,7 +1358,7 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>37.26</v>
@@ -1374,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>32.33</v>
@@ -1391,7 +1392,7 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>32</v>
@@ -1408,7 +1409,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>32</v>
@@ -1425,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>34.5</v>
@@ -1442,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>38</v>
@@ -1459,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -1476,7 +1477,7 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>32</v>
@@ -1493,7 +1494,7 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>32</v>
@@ -1510,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>40</v>
@@ -1527,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>32</v>
@@ -1544,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>32</v>
@@ -1561,7 +1562,7 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>31</v>
@@ -1578,7 +1579,7 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>16</v>
@@ -1595,7 +1596,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>34.5</v>
@@ -1612,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>32</v>
@@ -1629,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>32</v>
@@ -1646,7 +1647,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>32</v>
@@ -1663,7 +1664,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>40</v>
@@ -1680,7 +1681,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>37</v>
@@ -1697,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>34</v>
@@ -1714,7 +1715,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>32</v>
@@ -1731,7 +1732,7 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>16</v>
@@ -1748,7 +1749,7 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>32</v>
@@ -1765,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>32</v>
@@ -1782,7 +1783,7 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>32</v>
@@ -1799,7 +1800,7 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -1816,7 +1817,7 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>32.75</v>
@@ -1833,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>16</v>
@@ -1850,7 +1851,7 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>32</v>
@@ -1867,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>31.5</v>
@@ -1884,7 +1885,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>37</v>
@@ -1901,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>32</v>
@@ -1918,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>32</v>
@@ -1935,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>32</v>
@@ -1952,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>47.06</v>
@@ -1969,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -1986,7 +1987,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>32</v>
